--- a/xl/transactions.xlsx
+++ b/xl/transactions.xlsx
@@ -1,49 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7K\Documents\Python\master-python101\xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5F747-32C8-4E90-8DD1-1B631CC7EB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="[$$-C09]#,##0.00;[RED]\-[$$-C09]#,##0.00" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00;[Red]\-[$$-C09]#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,212 +62,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-    </view3D>
-    <floor/>
-    <sideWall/>
-    <backWall/>
-    <plotArea>
-      <bar3DChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$D$2:$D$4</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <gapDepth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-        <axId val="1000"/>
-      </bar3DChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-      <serAx>
-        <axId val="1000"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </serAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,98 +370,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100">
-      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="11.52"/>
+    <col min="1" max="1025" width="11.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>transaction_id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>product_id</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">price </t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Updated</t>
-        </is>
-      </c>
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1"/>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="3">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="2">
         <v>5.95</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.355</v>
-      </c>
+      <c r="D2"/>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1002</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="2">
         <v>6.95</v>
       </c>
-      <c r="D3" t="n">
-        <v>6.255</v>
-      </c>
+      <c r="D3"/>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="3">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1003</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="2">
         <v>7.95</v>
       </c>
-      <c r="D4" t="n">
-        <v>7.155</v>
-      </c>
+      <c r="D4"/>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/xl/transactions.xlsx
+++ b/xl/transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7K\Documents\Python\master-python101\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5F747-32C8-4E90-8DD1-1B631CC7EB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A26602C-6844-4730-9FC7-20352360A5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,18 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,9 +390,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -404,9 +401,8 @@
       <c r="C2" s="2">
         <v>5.95</v>
       </c>
-      <c r="D2"/>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -416,9 +412,8 @@
       <c r="C3" s="2">
         <v>6.95</v>
       </c>
-      <c r="D3"/>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -428,7 +423,6 @@
       <c r="C4" s="2">
         <v>7.95</v>
       </c>
-      <c r="D4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
